--- a/doc/外部設計/04_外部設計書（ホーム画面）_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書（ホーム画面）_チーム名 のコピー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94E4F5D-8530-461F-A8D2-581CE3C8A436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C8B2F9-8FAE-4F6B-9D0A-7FD05D62FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -516,6 +516,14 @@
     <t>※アプリロード時：午前5時以降に超過フラグがtrue…デフォルトへ→</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>syuudeen</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -902,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -952,24 +960,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,9 +991,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,7 +1009,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1129,8 +1140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3214914" y="1497488"/>
-          <a:ext cx="3580365" cy="4829765"/>
+          <a:off x="3221970" y="1513951"/>
+          <a:ext cx="3596828" cy="4890913"/>
           <a:chOff x="1444509" y="758418"/>
           <a:chExt cx="2407626" cy="3752935"/>
         </a:xfrm>
@@ -2343,160 +2354,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:AN3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6328125" style="1"/>
-    <col min="11" max="11" width="4.6328125" style="1" customWidth="1"/>
-    <col min="12" max="28" width="3.6328125" style="1"/>
-    <col min="29" max="29" width="7.36328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.6328125" style="1"/>
+    <col min="1" max="10" width="3.6640625" style="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12" max="28" width="3.6640625" style="1"/>
+    <col min="29" max="29" width="7.33203125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="43">
+        <v>45085</v>
+      </c>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="35"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4276,7 +4293,7 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="8"/>
